--- a/Data NEW Copy.xlsx
+++ b/Data NEW Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evaga\OneDrive\Documents\College\4. Senior Sophomore\BUU-44590 - Business Dissertation\Data Analysis\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9729CE-E3E4-463E-8B09-FDA5181FBE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5213AD39-06BC-4F8C-B661-86A9BE0DDB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10110" windowWidth="29040" windowHeight="15720" xr2:uid="{0B5ED5AE-01A2-4EAB-A228-52B49F5C461B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0B5ED5AE-01A2-4EAB-A228-52B49F5C461B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hard Data sorted" sheetId="4" r:id="rId1"/>
@@ -1248,7 +1248,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1378,6 +1378,7 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1782,23 +1783,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908F52F8-3223-4F2B-8C56-AD533B144FDA}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScaleNormal="100" zoomScalePageLayoutView="10" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" zoomScalePageLayoutView="10" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.26953125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="33.26953125" customWidth="1"/>
     <col min="2" max="2" width="17.54296875" customWidth="1"/>
     <col min="3" max="3" width="14.6328125" customWidth="1"/>
     <col min="4" max="4" width="31.7265625" customWidth="1"/>
     <col min="5" max="5" width="8.453125" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" customWidth="1"/>
     <col min="8" max="8" width="9.6328125" style="51" customWidth="1"/>
     <col min="9" max="9" width="14.6328125" customWidth="1"/>
     <col min="10" max="10" width="25.453125" customWidth="1"/>
-    <col min="11" max="11" width="14.6328125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -2715,6 +2716,7 @@
       <c r="J34" t="s">
         <v>106</v>
       </c>
+      <c r="K34" s="55"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="33" t="s">
@@ -2941,7 +2943,7 @@
         <v>175</v>
       </c>
       <c r="H43" s="51">
-        <v>25.8</v>
+        <v>15.8</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -6106,7 +6108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB12D4F-6221-4DEA-BF7E-E99B49632B83}">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A113" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>

--- a/Data NEW Copy.xlsx
+++ b/Data NEW Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evaga\OneDrive\Documents\College\4. Senior Sophomore\BUU-44590 - Business Dissertation\Data Analysis\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5213AD39-06BC-4F8C-B661-86A9BE0DDB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D233E005-9D1F-4D67-9397-A1A9ACB2DB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0B5ED5AE-01A2-4EAB-A228-52B49F5C461B}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="342">
   <si>
     <t>Metric</t>
   </si>
@@ -1107,6 +1107,9 @@
   </si>
   <si>
     <t>Estimate</t>
+  </si>
+  <si>
+    <t>16. (Rathore, 2020)</t>
   </si>
 </sst>
 </file>
@@ -1783,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908F52F8-3223-4F2B-8C56-AD533B144FDA}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" zoomScalePageLayoutView="10" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:C43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2146,7 +2149,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="B13" s="47" t="s">
         <v>334</v>
@@ -2618,7 +2621,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="B31" s="49" t="s">
         <v>339</v>

--- a/Data NEW Copy.xlsx
+++ b/Data NEW Copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evaga\OneDrive\Documents\College\4. Senior Sophomore\BUU-44590 - Business Dissertation\Data Analysis\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D233E005-9D1F-4D67-9397-A1A9ACB2DB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206AAAB8-E241-4F31-9BED-FFD0A995791E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0B5ED5AE-01A2-4EAB-A228-52B49F5C461B}"/>
   </bookViews>
@@ -1786,19 +1786,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908F52F8-3223-4F2B-8C56-AD533B144FDA}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="10" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" zoomScalePageLayoutView="10" workbookViewId="0">
+      <selection activeCell="F7" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.26953125" customWidth="1"/>
+    <col min="1" max="1" width="33.26953125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="17.54296875" customWidth="1"/>
     <col min="3" max="3" width="14.6328125" customWidth="1"/>
     <col min="4" max="4" width="31.7265625" customWidth="1"/>
     <col min="5" max="5" width="8.453125" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="9.6328125" style="51" customWidth="1"/>
     <col min="9" max="9" width="14.6328125" customWidth="1"/>
     <col min="10" max="10" width="25.453125" customWidth="1"/>
